--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3160828.93947964</v>
+        <v>3156816.329465647</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>50.71764319193312</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>78.96122915360965</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>26.53499330070641</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>48.00352625391691</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>138.8437204680931</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>24.14763241892726</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>52.07852635745696</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>142.3844270995955</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>64.8669020907514</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145761</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.25212658606793</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1347,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>149.2419515106227</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695514</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>172.7667915121189</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856538</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012153</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H16" t="n">
-        <v>56.03635866484524</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.54416032354752</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>74.20064764874431</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>104.4564809702501</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.0050276085214</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>23.08134457786019</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012186</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016448</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>260.4394343112825</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.7366421803699</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>58.47559664514485</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>150.8783572808988</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.03790159951681</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>209.8270610998458</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="U46" t="n">
-        <v>171.4144753991468</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796265</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796265</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5047572728761</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>177.7165046746318</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>170.7710039254284</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>159.7389578108289</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.452007243032</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>684.452007243032</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>534.3353678306962</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>386.4222742483031</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>239.5323267503927</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>239.5323267503927</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>93.31513996825052</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1878.806137731001</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1687.120253557827</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214137</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.50719300825</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732717</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y4" t="n">
-        <v>866.1004720732717</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1168.124113652745</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686086</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080131</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>752.7622949738568</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>583.8261120459499</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336142</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1783.471894452538</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1783.471894452538</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1783.471894452538</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>1383.192889845644</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>934.4107598040965</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1559.116588708439</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1190.154071768027</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3260.083698285179</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3260.083698285179</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3006.553221559016</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2675.490334215445</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2322.72167894533</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X8" t="n">
-        <v>1949.255920684251</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y8" t="n">
-        <v>1559.116588708439</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1586012949293</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>409.1586012949293</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>259.0419618825936</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>259.0419618825936</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>259.0419618825936</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y10" t="n">
-        <v>590.8070661251691</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5029,31 +5029,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,16 +5068,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913851</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078133</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799065</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675709</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>343.099465685178</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>343.099465685178</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304623</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267662</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369645</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261152</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>923.067041434951</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>696.7084350851671</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>546.5917956728314</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>546.5917956728314</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>399.701848174921</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G16" t="n">
-        <v>232.5057488898009</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908939</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,28 +5749,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081858</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153951</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741615</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>168.7668121881176</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>168.7668121881176</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4335.421017366252</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4335.421017366252</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>4080.736529160366</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>3791.319359123405</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>3563.329808225388</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>3342.537229081858</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3192.420589669522</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3023.484406741615</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741615</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159222</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661312</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.571434467151</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3449.581883569134</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3228.789304425604</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6305,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958707</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>802.9288273958707</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232847</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408913</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429808</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578605</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487565</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510506</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510506</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304619</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267658</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369641</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261106</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6457,34 +6457,34 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2529.355041543136</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.8386896933887</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="32">
@@ -6679,37 +6679,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6718,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>990.5373202159263</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>821.6011372880195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>671.4844978756837</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>523.5714042932906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>376.6814567953802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2232.335067281621</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.981709809276</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.981709809276</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2877.307316025035</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3474.685803651586</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4102.283767206193</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3052.912304341663</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2883.976121413757</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.530233214083</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.455006558281</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.770518352394</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.353348315433</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3455.353348315433</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3234.560769171903</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7165,61 +7165,61 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>633.992644467967</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>483.8760050556313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>335.9629114732381</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>189.0729639753278</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369644</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261136</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123329</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938885</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1476.439327491226</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1187.022157454266</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,34 +7663,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U46" t="n">
-        <v>2023.916610740955</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.232122535068</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.065188669818212</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>110.003342051665</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H16" t="n">
-        <v>84.25835418137865</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>7.065188669821225</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>112.9489693570382</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>143.8269525734159</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>125.5341284403523</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>25.74504007796162</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.84801117172486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>107.048541647124</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>66.52709304638944</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>152.486236692752</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>42.31058222398218</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>182.9484181982414</v>
       </c>
       <c r="U46" t="n">
-        <v>114.7699989900973</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>730000.4839664821</v>
+        <v>730000.4839664822</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="13">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
@@ -26322,40 +26322,40 @@
         <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="M2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287551</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.852930477587507e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316949</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181829</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26435,13 +26435,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
+        <v>12386.92018181817</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="J4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181807</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26453,7 +26453,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809841.0926109073</v>
+        <v>-809841.0926109074</v>
       </c>
       <c r="C6" t="n">
-        <v>518903.6531166856</v>
+        <v>518903.6531166857</v>
       </c>
       <c r="D6" t="n">
-        <v>518903.6531166851</v>
+        <v>518903.6531166848</v>
       </c>
       <c r="E6" t="n">
-        <v>267331.3629156749</v>
+        <v>266983.9836613181</v>
       </c>
       <c r="F6" t="n">
-        <v>592743.8247230303</v>
+        <v>592396.4454686731</v>
       </c>
       <c r="G6" t="n">
-        <v>592743.8247230301</v>
+        <v>592396.4454686735</v>
       </c>
       <c r="H6" t="n">
-        <v>592743.8247230301</v>
+        <v>592396.4454686735</v>
       </c>
       <c r="I6" t="n">
-        <v>592743.8247230303</v>
+        <v>592396.4454686732</v>
       </c>
       <c r="J6" t="n">
-        <v>375212.622325753</v>
+        <v>374865.2430713958</v>
       </c>
       <c r="K6" t="n">
-        <v>592743.8247230302</v>
+        <v>592396.4454686732</v>
       </c>
       <c r="L6" t="n">
-        <v>592743.8247230302</v>
+        <v>592396.4454686735</v>
       </c>
       <c r="M6" t="n">
-        <v>507688.7967875188</v>
+        <v>507341.4175331615</v>
       </c>
       <c r="N6" t="n">
-        <v>592743.82472303</v>
+        <v>592396.4454686732</v>
       </c>
       <c r="O6" t="n">
-        <v>592743.8247230301</v>
+        <v>592396.4454686731</v>
       </c>
       <c r="P6" t="n">
-        <v>592743.8247230301</v>
+        <v>592396.445468673</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973558</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>243.8901211953873</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>307.276709502444</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.81742710913167</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>40.92862641613042</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243.8901211953875</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>345.5834682595418</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>94.35543628911222</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>77.16452217657374</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>44.32085969742444</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.4435131414775</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.77368167296029</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>69.34270184147212</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>547.6926421044568</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286714</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>383.9182138639289</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>308.1572428165614</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32733,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33025,13 +33025,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>169.6252075171348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>100.2764607028583</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>555.1777416630672</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>211.7351844430267</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>405.5586081824385</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>425.4542490066531</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>249.9438064495987</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295319</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.94570355317081</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7540807028583389</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>416.623361883193</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>73.18080466315254</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3156816.329465647</v>
+        <v>3158576.859768432</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>275.1428043778315</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>78.96122915360965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>48.00352625391691</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>94.81275980261665</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>24.14763241892726</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>52.07852635745696</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>207.8637492714485</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145761</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>15.32691334752943</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.2419515106227</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417133</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>35.41770597126623</v>
+        <v>90.8591285852991</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146496</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>74.20064764874431</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>162.194422070959</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>112.5284434523316</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>260.4394343112825</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>226.3926032458673</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>34.45703212904686</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>2325.505862906804</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1878.806137731001</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1687.120253557827</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1465.353638127353</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1465.353638127353</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1465.353638127353</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1175.936468090393</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1175.936468090393</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>2047.583838282732</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>2071.975386180641</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738568</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C7" t="n">
-        <v>583.8261120459499</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336142</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882605</v>
+        <v>1717.33116498602</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845644</v>
+        <v>1427.913994949059</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947627</v>
+        <v>1199.924444051042</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040965</v>
+        <v>979.1318649075118</v>
       </c>
     </row>
     <row r="8">
@@ -4801,19 +4801,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,31 +4822,31 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
         <v>2731.767278738087</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1821.982360191951</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1424.011591242373</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>415.5933575433596</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101285</v>
+        <v>267.6802639609665</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5667,49 +5667,49 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
         <v>1202.091371290588</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,19 +5825,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
         <v>1337.934786622704</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>335.9629114732377</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>335.9629114732377</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>168.7668121881176</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H22" t="n">
-        <v>168.7668121881176</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,31 +7162,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7499,7 +7499,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>948.5505208511906</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232838</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2412.158000621627</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1868.398285759938</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W46" t="n">
-        <v>1578.981115722978</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X46" t="n">
-        <v>1350.99156482496</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>1130.19898568143</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-2.952548028231361e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>110.003342051665</v>
+        <v>54.56191943763214</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>62.35543909864916</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>7.065188669821225</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>44.73700564187209</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.329716221309809</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>32.8926045705996</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>25.74504007796162</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>166.0397529241845</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>25.74504007796068</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>182.9484181982414</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>730000.4839664822</v>
+        <v>730000.4839664821</v>
       </c>
     </row>
     <row r="4">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>717842.2100639894</v>
+        <v>717842.2100639896</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>717842.2100639894</v>
+        <v>717842.2100639895</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>717842.2100639894</v>
+        <v>717842.2100639895</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287559</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>706253.2747287552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316932</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316949</v>
+        <v>91573.95495316935</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809841.0926109074</v>
+        <v>-809841.0926109077</v>
       </c>
       <c r="C6" t="n">
-        <v>518903.6531166857</v>
+        <v>518903.6531166853</v>
       </c>
       <c r="D6" t="n">
-        <v>518903.6531166848</v>
+        <v>518903.6531166851</v>
       </c>
       <c r="E6" t="n">
-        <v>266983.9836613181</v>
+        <v>267296.6249902396</v>
       </c>
       <c r="F6" t="n">
-        <v>592396.4454686731</v>
+        <v>592709.0867975944</v>
       </c>
       <c r="G6" t="n">
-        <v>592396.4454686735</v>
+        <v>592709.0867975948</v>
       </c>
       <c r="H6" t="n">
-        <v>592396.4454686735</v>
+        <v>592709.0867975948</v>
       </c>
       <c r="I6" t="n">
-        <v>592396.4454686732</v>
+        <v>592709.0867975943</v>
       </c>
       <c r="J6" t="n">
-        <v>374865.2430713958</v>
+        <v>375177.8844003171</v>
       </c>
       <c r="K6" t="n">
-        <v>592396.4454686732</v>
+        <v>592709.0867975947</v>
       </c>
       <c r="L6" t="n">
-        <v>592396.4454686735</v>
+        <v>592709.0867975946</v>
       </c>
       <c r="M6" t="n">
-        <v>507341.4175331615</v>
+        <v>507654.0588620827</v>
       </c>
       <c r="N6" t="n">
-        <v>592396.4454686732</v>
+        <v>592709.0867975948</v>
       </c>
       <c r="O6" t="n">
-        <v>592396.4454686731</v>
+        <v>592709.0867975944</v>
       </c>
       <c r="P6" t="n">
-        <v>592396.445468673</v>
+        <v>592709.0867975946</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>107.5910372856491</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.276709502444</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>40.92862641613042</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>270.4601319683909</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>345.5834682595418</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>94.35543628911222</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.27389405237949</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.4435131414775</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>174.4421119839125</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>69.34270184147212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192546</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>732.4825987614915</v>
+        <v>395.184849093591</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32557,19 +32557,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>308.1572428165614</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34219,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34456,31 +34456,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>332.6181808359212</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3485648394733</v>
+        <v>253.0508151715726</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>165.5609983721169</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
